--- a/biology/Botanique/Tapia_(arbre)/Tapia_(arbre).xlsx
+++ b/biology/Botanique/Tapia_(arbre)/Tapia_(arbre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Tapia (Uapaca bojeri) est une espèce de plantes à fleurs de la famille des Phyllanthaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Tapia[1] est un arbre endémique des hauts-plateaux de Madagascar, principalement dans la région qui s'étend du sud d'Antsirabe au nord d'Ambositra, mais aussi à l'ouest de Tananarive.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Tapia est un arbre endémique des hauts-plateaux de Madagascar, principalement dans la région qui s'étend du sud d'Antsirabe au nord d'Ambositra, mais aussi à l'ouest de Tananarive.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Le Tapia et l'Homme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet arbre présente deux propriétés intéressantes : 
 c'est le seul arbre de la Grande Île à héberger le ver à soie sauvage (ou landibe), Borocera madagascariensis ;
@@ -580,16 +596,87 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Uapaca bojeri Baill.[2],[3].
-Uapaca bojeri a pour synonymes[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Uapaca bojeri Baill.,.
+Uapaca bojeri a pour synonymes :
 Chorizotheca macrophylla Heckel
-Uapaca clusiacea Baker
-Étymologie
-Son épithète spécifique, bojeri, lui a été donnée en l'honneur du botaniste tchèque Wenceslas Bojer (1797-1856)[3].
-Publication originale
-(la) H. Baillon, « Stirpes Exoticae Novae », Adansonia, recueil d'observations botaniques, Paris, vol. 11,‎ 1874, p. 175-182 (lire en ligne, consulté le 6 mai 2024).</t>
+Uapaca clusiacea Baker</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tapia_(arbre)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tapia_(arbre)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, bojeri, lui a été donnée en l'honneur du botaniste tchèque Wenceslas Bojer (1797-1856).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Tapia_(arbre)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tapia_(arbre)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(la) H. Baillon, « Stirpes Exoticae Novae », Adansonia, recueil d'observations botaniques, Paris, vol. 11,‎ 1874, p. 175-182 (lire en ligne, consulté le 6 mai 2024).</t>
         </is>
       </c>
     </row>
